--- a/dy/expdata/20001.xlsx
+++ b/dy/expdata/20001.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/dy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F9C107-3CB5-5745-B975-5E7DA27A4B1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9247D1-AF85-574E-B52C-02063E101559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
   <si>
     <t>idx</t>
   </si>
@@ -83,13 +83,16 @@
   <si>
     <t>Q</t>
   </si>
+  <si>
+    <t>xt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,7 +137,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,22 +420,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK185"/>
+  <dimension ref="A1:AML185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" style="1" customWidth="1"/>
-    <col min="11" max="1025" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="1" customWidth="1"/>
+    <col min="12" max="1026" width="10.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,25 +455,28 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -491,26 +497,29 @@
         <v>0.11855670103092783</v>
       </c>
       <c r="G2" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.53400000000000003</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>1.038</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L2" s="2">
-        <f>0.0093*J2</f>
+      <c r="M2" s="2">
+        <f>0.0093*K2</f>
         <v>9.6533999999999995E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -531,26 +540,29 @@
         <v>0.13144329896907217</v>
       </c>
       <c r="G3" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.41499999999999998</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>1.056</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L16" si="1">0.0093*J3</f>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M16" si="1">0.0093*K3</f>
         <v>9.8207999999999993E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -571,26 +583,29 @@
         <v>0.14432989690721651</v>
       </c>
       <c r="G4" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.35599999999999998</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>1.081</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>0.01</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <f t="shared" si="1"/>
         <v>1.0053299999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -611,26 +626,29 @@
         <v>0.15979381443298971</v>
       </c>
       <c r="G5" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H5" s="2">
         <v>0.32600000000000001</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>1.0860000000000001</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="1"/>
         <v>1.0099799999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -651,26 +669,29 @@
         <v>0.1752577319587629</v>
       </c>
       <c r="G6" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>1.1117999999999999</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <f t="shared" si="1"/>
         <v>1.0339739999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -691,26 +712,29 @@
         <v>0.18556701030927836</v>
       </c>
       <c r="G7" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.26100000000000001</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>1.1160000000000001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
         <v>1.0378800000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -731,26 +755,29 @@
         <v>0.19329896907216496</v>
       </c>
       <c r="G8" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.22700000000000001</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1.115</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <f t="shared" si="1"/>
         <v>1.0369499999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -771,26 +798,29 @@
         <v>0.20103092783505155</v>
       </c>
       <c r="G9" s="2">
+        <v>0.127</v>
+      </c>
+      <c r="H9" s="2">
         <v>0.19900000000000001</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1.161</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <f t="shared" si="1"/>
         <v>1.0797299999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -811,26 +841,29 @@
         <v>0.21134020618556701</v>
       </c>
       <c r="G10" s="2">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.182</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1.1319999999999999</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <f t="shared" si="1"/>
         <v>1.0527599999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -851,26 +884,29 @@
         <v>0.22422680412371135</v>
       </c>
       <c r="G11" s="2">
+        <v>0.161</v>
+      </c>
+      <c r="H11" s="2">
         <v>0.16400000000000001</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>1.1240000000000001</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <f t="shared" si="1"/>
         <v>1.0453200000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -891,26 +927,29 @@
         <v>0.24484536082474229</v>
       </c>
       <c r="G12" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="H12" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1.1439999999999999</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <f t="shared" si="1"/>
         <v>1.0639199999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -931,26 +970,29 @@
         <v>0.26546391752577325</v>
       </c>
       <c r="G13" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H13" s="2">
         <v>0.13300000000000001</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>1.091</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
         <v>1.0146299999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -971,26 +1013,29 @@
         <v>0.28608247422680416</v>
       </c>
       <c r="G14" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H14" s="2">
         <v>0.12</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1.0389999999999999</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <f t="shared" si="1"/>
         <v>9.662699999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1011,26 +1056,29 @@
         <v>0.30927835051546393</v>
       </c>
       <c r="G15" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H15" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>0.93500000000000005</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <f t="shared" si="1"/>
         <v>8.6955000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1051,1376 +1099,1548 @@
         <v>0.33247422680412375</v>
       </c>
       <c r="G16" s="2">
+        <v>0.315</v>
+      </c>
+      <c r="H16" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>0.72899999999999998</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>0.124</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <f t="shared" si="1"/>
         <v>6.7796999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="H43" s="2"/>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="H46" s="2"/>
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="H48" s="2"/>
       <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="H49" s="2"/>
       <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="H50" s="2"/>
       <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="H52" s="2"/>
       <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="H53" s="2"/>
       <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="H57" s="2"/>
       <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="H58" s="2"/>
       <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="H61" s="2"/>
       <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="H63" s="2"/>
       <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="H65" s="2"/>
       <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="H66" s="2"/>
       <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="H68" s="2"/>
       <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="J69" s="2"/>
+      <c r="H69" s="2"/>
       <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="J71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="J72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="H73" s="2"/>
       <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="J74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="J75" s="2"/>
+      <c r="H75" s="2"/>
       <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="H76" s="2"/>
       <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="H77" s="2"/>
       <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="J78" s="2"/>
+      <c r="H78" s="2"/>
       <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="J79" s="2"/>
+      <c r="H79" s="2"/>
       <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="J80" s="2"/>
+      <c r="H80" s="2"/>
       <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="H81" s="2"/>
       <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="J82" s="2"/>
+      <c r="H82" s="2"/>
       <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="J83" s="2"/>
+      <c r="H83" s="2"/>
       <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="H84" s="2"/>
       <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="H85" s="2"/>
       <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="J86" s="2"/>
+      <c r="H86" s="2"/>
       <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="J87" s="2"/>
+      <c r="H87" s="2"/>
       <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="J88" s="2"/>
+      <c r="H88" s="2"/>
       <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="H89" s="2"/>
       <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="J90" s="2"/>
+      <c r="H90" s="2"/>
       <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="J91" s="2"/>
+      <c r="H91" s="2"/>
       <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="J92" s="2"/>
+      <c r="H92" s="2"/>
       <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="J93" s="2"/>
+      <c r="H93" s="2"/>
       <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="J94" s="2"/>
+      <c r="H94" s="2"/>
       <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="J95" s="2"/>
+      <c r="H95" s="2"/>
       <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="H96" s="2"/>
       <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="H97" s="2"/>
       <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="J98" s="2"/>
+      <c r="H98" s="2"/>
       <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="H99" s="2"/>
       <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="J100" s="2"/>
+      <c r="H100" s="2"/>
       <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="J101" s="2"/>
+      <c r="H101" s="2"/>
       <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="J102" s="2"/>
+      <c r="H102" s="2"/>
       <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="J103" s="2"/>
+      <c r="H103" s="2"/>
       <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="H104" s="2"/>
       <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="J105" s="2"/>
+      <c r="H105" s="2"/>
       <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="J106" s="2"/>
+      <c r="H106" s="2"/>
       <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="J107" s="2"/>
+      <c r="H107" s="2"/>
       <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="J108" s="2"/>
+      <c r="H108" s="2"/>
       <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="J109" s="2"/>
+      <c r="H109" s="2"/>
       <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="J110" s="2"/>
+      <c r="H110" s="2"/>
       <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="H111" s="2"/>
       <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="J112" s="2"/>
+      <c r="H112" s="2"/>
       <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="J113" s="2"/>
+      <c r="H113" s="2"/>
       <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="J114" s="2"/>
+      <c r="H114" s="2"/>
       <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="J115" s="2"/>
+      <c r="H115" s="2"/>
       <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="H116" s="2"/>
       <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="H117" s="2"/>
       <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="J118" s="2"/>
+      <c r="H118" s="2"/>
       <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="J119" s="2"/>
+      <c r="H119" s="2"/>
       <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-      <c r="J120" s="2"/>
+      <c r="H120" s="2"/>
       <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-      <c r="J121" s="2"/>
+      <c r="H121" s="2"/>
       <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-      <c r="J122" s="2"/>
+      <c r="H122" s="2"/>
       <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-      <c r="J123" s="2"/>
+      <c r="H123" s="2"/>
       <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="H124" s="2"/>
       <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-      <c r="J125" s="2"/>
+      <c r="H125" s="2"/>
       <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="H126" s="2"/>
       <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-      <c r="J127" s="2"/>
+      <c r="H127" s="2"/>
       <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="H128" s="2"/>
       <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="J129" s="2"/>
+      <c r="H129" s="2"/>
       <c r="K129" s="2"/>
-    </row>
-    <row r="130" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-      <c r="J130" s="2"/>
+      <c r="H130" s="2"/>
       <c r="K130" s="2"/>
-    </row>
-    <row r="131" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-      <c r="J131" s="2"/>
+      <c r="H131" s="2"/>
       <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-      <c r="J132" s="2"/>
+      <c r="H132" s="2"/>
       <c r="K132" s="2"/>
-    </row>
-    <row r="133" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L132" s="2"/>
+    </row>
+    <row r="133" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-      <c r="J133" s="2"/>
+      <c r="H133" s="2"/>
       <c r="K133" s="2"/>
-    </row>
-    <row r="134" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
-      <c r="J134" s="2"/>
+      <c r="H134" s="2"/>
       <c r="K134" s="2"/>
-    </row>
-    <row r="135" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-      <c r="J135" s="2"/>
+      <c r="H135" s="2"/>
       <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-      <c r="J136" s="2"/>
+      <c r="H136" s="2"/>
       <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L136" s="2"/>
+    </row>
+    <row r="137" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="J137" s="2"/>
+      <c r="H137" s="2"/>
       <c r="K137" s="2"/>
-    </row>
-    <row r="138" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L137" s="2"/>
+    </row>
+    <row r="138" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-      <c r="J138" s="2"/>
+      <c r="H138" s="2"/>
       <c r="K138" s="2"/>
-    </row>
-    <row r="139" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L138" s="2"/>
+    </row>
+    <row r="139" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-      <c r="J139" s="2"/>
+      <c r="H139" s="2"/>
       <c r="K139" s="2"/>
-    </row>
-    <row r="140" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-      <c r="J140" s="2"/>
+      <c r="H140" s="2"/>
       <c r="K140" s="2"/>
-    </row>
-    <row r="141" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L140" s="2"/>
+    </row>
+    <row r="141" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="J141" s="2"/>
+      <c r="H141" s="2"/>
       <c r="K141" s="2"/>
-    </row>
-    <row r="142" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-      <c r="J142" s="2"/>
+      <c r="H142" s="2"/>
       <c r="K142" s="2"/>
-    </row>
-    <row r="143" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L142" s="2"/>
+    </row>
+    <row r="143" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-      <c r="J143" s="2"/>
+      <c r="H143" s="2"/>
       <c r="K143" s="2"/>
-    </row>
-    <row r="144" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L143" s="2"/>
+    </row>
+    <row r="144" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
-      <c r="J144" s="2"/>
+      <c r="H144" s="2"/>
       <c r="K144" s="2"/>
-    </row>
-    <row r="145" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-      <c r="J145" s="2"/>
+      <c r="H145" s="2"/>
       <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-      <c r="J146" s="2"/>
+      <c r="H146" s="2"/>
       <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L146" s="2"/>
+    </row>
+    <row r="147" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-      <c r="J147" s="2"/>
+      <c r="H147" s="2"/>
       <c r="K147" s="2"/>
-    </row>
-    <row r="148" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-      <c r="J148" s="2"/>
+      <c r="H148" s="2"/>
       <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-      <c r="J149" s="2"/>
+      <c r="H149" s="2"/>
       <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-      <c r="J150" s="2"/>
+      <c r="H150" s="2"/>
       <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-      <c r="J151" s="2"/>
+      <c r="H151" s="2"/>
       <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-      <c r="J152" s="2"/>
+      <c r="H152" s="2"/>
       <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-      <c r="J153" s="2"/>
+      <c r="H153" s="2"/>
       <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-      <c r="J154" s="2"/>
+      <c r="H154" s="2"/>
       <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-      <c r="J155" s="2"/>
+      <c r="H155" s="2"/>
       <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-      <c r="J156" s="2"/>
+      <c r="H156" s="2"/>
       <c r="K156" s="2"/>
-    </row>
-    <row r="157" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="J157" s="2"/>
+      <c r="H157" s="2"/>
       <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-      <c r="J158" s="2"/>
+      <c r="H158" s="2"/>
       <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L158" s="2"/>
+    </row>
+    <row r="159" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-      <c r="J159" s="2"/>
+      <c r="H159" s="2"/>
       <c r="K159" s="2"/>
-    </row>
-    <row r="160" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-      <c r="J160" s="2"/>
+      <c r="H160" s="2"/>
       <c r="K160" s="2"/>
-    </row>
-    <row r="161" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-      <c r="J161" s="2"/>
+      <c r="H161" s="2"/>
       <c r="K161" s="2"/>
-    </row>
-    <row r="162" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L161" s="2"/>
+    </row>
+    <row r="162" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-      <c r="J162" s="2"/>
+      <c r="H162" s="2"/>
       <c r="K162" s="2"/>
-    </row>
-    <row r="163" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-      <c r="J163" s="2"/>
+      <c r="H163" s="2"/>
       <c r="K163" s="2"/>
-    </row>
-    <row r="164" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L163" s="2"/>
+    </row>
+    <row r="164" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="J164" s="2"/>
+      <c r="H164" s="2"/>
       <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L164" s="2"/>
+    </row>
+    <row r="165" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-      <c r="J165" s="2"/>
+      <c r="H165" s="2"/>
       <c r="K165" s="2"/>
-    </row>
-    <row r="166" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L165" s="2"/>
+    </row>
+    <row r="166" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
-      <c r="J166" s="2"/>
+      <c r="H166" s="2"/>
       <c r="K166" s="2"/>
-    </row>
-    <row r="167" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
-      <c r="J167" s="2"/>
+      <c r="H167" s="2"/>
       <c r="K167" s="2"/>
-    </row>
-    <row r="168" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L167" s="2"/>
+    </row>
+    <row r="168" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-      <c r="J168" s="2"/>
+      <c r="H168" s="2"/>
       <c r="K168" s="2"/>
-    </row>
-    <row r="169" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L168" s="2"/>
+    </row>
+    <row r="169" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-      <c r="J169" s="2"/>
+      <c r="H169" s="2"/>
       <c r="K169" s="2"/>
-    </row>
-    <row r="170" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L169" s="2"/>
+    </row>
+    <row r="170" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-      <c r="J170" s="2"/>
+      <c r="H170" s="2"/>
       <c r="K170" s="2"/>
-    </row>
-    <row r="171" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L170" s="2"/>
+    </row>
+    <row r="171" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-      <c r="J171" s="2"/>
+      <c r="H171" s="2"/>
       <c r="K171" s="2"/>
-    </row>
-    <row r="172" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L171" s="2"/>
+    </row>
+    <row r="172" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-      <c r="J172" s="2"/>
+      <c r="H172" s="2"/>
       <c r="K172" s="2"/>
-    </row>
-    <row r="173" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L172" s="2"/>
+    </row>
+    <row r="173" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="J173" s="2"/>
+      <c r="H173" s="2"/>
       <c r="K173" s="2"/>
-    </row>
-    <row r="174" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L173" s="2"/>
+    </row>
+    <row r="174" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-      <c r="J174" s="2"/>
+      <c r="H174" s="2"/>
       <c r="K174" s="2"/>
-    </row>
-    <row r="175" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L174" s="2"/>
+    </row>
+    <row r="175" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-      <c r="J175" s="2"/>
+      <c r="H175" s="2"/>
       <c r="K175" s="2"/>
-    </row>
-    <row r="176" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L175" s="2"/>
+    </row>
+    <row r="176" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-      <c r="J176" s="2"/>
+      <c r="H176" s="2"/>
       <c r="K176" s="2"/>
-    </row>
-    <row r="177" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L176" s="2"/>
+    </row>
+    <row r="177" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
-      <c r="J177" s="2"/>
+      <c r="H177" s="2"/>
       <c r="K177" s="2"/>
-    </row>
-    <row r="178" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L177" s="2"/>
+    </row>
+    <row r="178" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
-      <c r="J178" s="2"/>
+      <c r="H178" s="2"/>
       <c r="K178" s="2"/>
-    </row>
-    <row r="179" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
-      <c r="J179" s="2"/>
+      <c r="H179" s="2"/>
       <c r="K179" s="2"/>
-    </row>
-    <row r="180" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L179" s="2"/>
+    </row>
+    <row r="180" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
-      <c r="J180" s="2"/>
+      <c r="H180" s="2"/>
       <c r="K180" s="2"/>
-    </row>
-    <row r="181" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L180" s="2"/>
+    </row>
+    <row r="181" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
-      <c r="J181" s="2"/>
+      <c r="H181" s="2"/>
       <c r="K181" s="2"/>
-    </row>
-    <row r="182" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L181" s="2"/>
+    </row>
+    <row r="182" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
-      <c r="J182" s="2"/>
+      <c r="H182" s="2"/>
       <c r="K182" s="2"/>
-    </row>
-    <row r="183" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L182" s="2"/>
+    </row>
+    <row r="183" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
-      <c r="J183" s="2"/>
+      <c r="H183" s="2"/>
       <c r="K183" s="2"/>
-    </row>
-    <row r="184" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L183" s="2"/>
+    </row>
+    <row r="184" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-      <c r="J184" s="2"/>
+      <c r="H184" s="2"/>
       <c r="K184" s="2"/>
-    </row>
-    <row r="185" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L184" s="2"/>
+    </row>
+    <row r="185" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="J185" s="2"/>
+      <c r="H185" s="2"/>
       <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
